--- a/EazyRP_project/src/main/webapp/resources/forms/휴가신청서.xlsx
+++ b/EazyRP_project/src/main/webapp/resources/forms/휴가신청서.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2652" windowWidth="10728" windowHeight="6996"/>
+    <workbookView xWindow="0" yWindow="2652" windowWidth="18060" windowHeight="4704"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>소  속</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,11 +73,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2023년     07월     01일
-성명 :                (인)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>　　</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -87,6 +82,14 @@
   </si>
   <si>
     <t>　</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023년     07월     01일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성명 :  (인)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -199,15 +202,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -508,7 +508,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -518,8 +518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:F6"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -533,122 +533,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="1" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="10"/>
+    </row>
+    <row r="4" spans="1:9" s="1" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:9" s="1" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:9" s="1" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" s="1" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:9" s="1" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" spans="1:9" s="1" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-    </row>
-    <row r="4" spans="1:9" s="1" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-    </row>
-    <row r="5" spans="1:9" s="1" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6" spans="1:9" s="1" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7" spans="1:9" s="1" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="1:9" s="1" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="11"/>
-    </row>
-    <row r="9" spans="1:9" s="1" customFormat="1" ht="190.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="1:9" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:9" s="1" customFormat="1" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="10"/>
     </row>
     <row r="11" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="12" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
@@ -657,15 +659,16 @@
     <row r="15" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="16" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A10:F10"/>
     <mergeCell ref="A9:F9"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="A8:F8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
